--- a/bl_resources/Resources/found_test.xlsx
+++ b/bl_resources/Resources/found_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="330" windowWidth="20115" windowHeight="7185"/>
+    <workbookView xWindow="240" yWindow="390" windowWidth="20115" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,26 +20,27 @@
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs0" localSheetId="0" hidden="1">Лист1!$N$12</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Лист1!$B$4:$M$4</definedName>
-    <definedName name="solver_lhs10" localSheetId="0" hidden="1">Лист1!$N$6</definedName>
-    <definedName name="solver_lhs11" localSheetId="0" hidden="1">Лист1!$N$7</definedName>
-    <definedName name="solver_lhs12" localSheetId="0" hidden="1">Лист1!$N$8</definedName>
-    <definedName name="solver_lhs13" localSheetId="0" hidden="1">Лист1!$N$9</definedName>
-    <definedName name="solver_lhs14" localSheetId="0" hidden="1">Лист1!$N$26</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">Лист1!$N$26</definedName>
+    <definedName name="solver_lhs11" localSheetId="0" hidden="1">Лист1!$N$5</definedName>
+    <definedName name="solver_lhs12" localSheetId="0" hidden="1">Лист1!$N$6</definedName>
+    <definedName name="solver_lhs13" localSheetId="0" hidden="1">Лист1!$N$7</definedName>
+    <definedName name="solver_lhs14" localSheetId="0" hidden="1">Лист1!$N$8</definedName>
+    <definedName name="solver_lhs15" localSheetId="0" hidden="1">Лист1!$N$9</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Лист1!$N$10</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Лист1!$N$11</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Лист1!$N$12</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">Лист1!$N$13</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">Лист1!$N$14</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">Лист1!$N$15</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">Лист1!$N$16:$N$26</definedName>
-    <definedName name="solver_lhs9" localSheetId="0" hidden="1">Лист1!$N$5</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">Лист1!$N$16</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">Лист1!$N$17:$N$25</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">13</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">15</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$N$27</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
@@ -48,32 +49,34 @@
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel11" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel12" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel12" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel13" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel14" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel14" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel15" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel8" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel8" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rhs0" localSheetId="0" hidden="1">Лист1!$P$12</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs10" localSheetId="0" hidden="1">Лист1!$P$6</definedName>
-    <definedName name="solver_rhs11" localSheetId="0" hidden="1">Лист1!$P$7</definedName>
-    <definedName name="solver_rhs12" localSheetId="0" hidden="1">Лист1!$P$8</definedName>
-    <definedName name="solver_rhs13" localSheetId="0" hidden="1">Лист1!$P$9</definedName>
-    <definedName name="solver_rhs14" localSheetId="0" hidden="1">Лист1!$P$26</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">Лист1!$P$26</definedName>
+    <definedName name="solver_rhs11" localSheetId="0" hidden="1">Лист1!$P$5</definedName>
+    <definedName name="solver_rhs12" localSheetId="0" hidden="1">Лист1!$P$6</definedName>
+    <definedName name="solver_rhs13" localSheetId="0" hidden="1">Лист1!$P$7</definedName>
+    <definedName name="solver_rhs14" localSheetId="0" hidden="1">Лист1!$P$8</definedName>
+    <definedName name="solver_rhs15" localSheetId="0" hidden="1">Лист1!$P$9</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Лист1!$P$10</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">Лист1!$P$11</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">Лист1!$P$12</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">Лист1!$P$13</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">Лист1!$P$14</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">Лист1!$P$15</definedName>
-    <definedName name="solver_rhs8" localSheetId="0" hidden="1">Лист1!$P$16:$P$26</definedName>
-    <definedName name="solver_rhs9" localSheetId="0" hidden="1">Лист1!$P$5</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">Лист1!$P$16</definedName>
+    <definedName name="solver_rhs9" localSheetId="0" hidden="1">Лист1!$P$17:$P$25</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -546,6 +549,30 @@
     </r>
   </si>
   <si>
+    <t>Кманевренности</t>
+  </si>
+  <si>
+    <t>Кэф.исп.активов</t>
+  </si>
+  <si>
+    <t>Ккач.ссуд.задолженности</t>
+  </si>
+  <si>
+    <t>Кпокр.процентов</t>
+  </si>
+  <si>
+    <t>Собсвенный капитал</t>
+  </si>
+  <si>
+    <t>Вклады ф,л,+ю,л,</t>
+  </si>
+  <si>
+    <t>Cобственные средства-внеоборотные активы (СОС)</t>
+  </si>
+  <si>
+    <t>Ссудная задолженность-РВПС</t>
+  </si>
+  <si>
     <r>
       <t>К</t>
     </r>
@@ -558,38 +585,17 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>кл.б.</t>
+      <t>клиентской базы</t>
     </r>
-  </si>
-  <si>
-    <t>Кманевренности</t>
-  </si>
-  <si>
-    <t>Кэф.исп.активов</t>
-  </si>
-  <si>
-    <t>Ккач.ссуд.задолженности</t>
-  </si>
-  <si>
-    <t>Кпокр.процентов</t>
-  </si>
-  <si>
-    <t>Собсвенный капитал</t>
-  </si>
-  <si>
-    <t>Вклады ф,л,+ю,л,</t>
-  </si>
-  <si>
-    <t>Cобственные средства-внеоборотные активы (СОС)</t>
-  </si>
-  <si>
-    <t>Ссудная задолженность-РВПС</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00;[Black]0.00"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -772,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -838,6 +844,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1158,7 +1176,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1181,46 +1199,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="J1" s="32" t="s">
+      <c r="I1" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="32" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -1231,25 +1249,25 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="28"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="32"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1291,24 +1309,24 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="24">
-        <v>17275649</v>
+        <v>17175649</v>
       </c>
       <c r="C4" s="24">
-        <v>101218956</v>
+        <v>100157481</v>
       </c>
       <c r="D4" s="25">
-        <v>245512988</v>
+        <v>246512988</v>
       </c>
       <c r="E4" s="24">
-        <v>17298838</v>
+        <v>17398849</v>
       </c>
       <c r="F4" s="26">
-        <v>14174676</v>
-      </c>
-      <c r="G4" s="26">
-        <v>98895545</v>
+        <v>14274675</v>
+      </c>
+      <c r="G4" s="31">
+        <v>98995544</v>
       </c>
       <c r="H4" s="26">
         <v>101132465</v>
@@ -1316,24 +1334,24 @@
       <c r="I4" s="24">
         <v>8637824</v>
       </c>
-      <c r="J4" s="24">
-        <v>123619431.25</v>
+      <c r="J4" s="29">
+        <v>121714565.25</v>
       </c>
       <c r="K4" s="25">
         <v>29507869</v>
       </c>
       <c r="L4" s="24">
-        <v>147539349</v>
+        <v>147719249</v>
       </c>
       <c r="M4" s="24">
-        <v>98895542</v>
+        <v>98056489</v>
       </c>
       <c r="N4" s="16"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="33" t="s">
         <v>146</v>
       </c>
       <c r="B5" s="1">
@@ -1352,9 +1370,9 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="13"/>
-      <c r="N5" s="17">
-        <f>-SUMPRODUCT($B$4:$M$4,B5:M5)</f>
-        <v>105480845</v>
+      <c r="N5" s="28">
+        <f>SUMPRODUCT($B$4:$M$4,B5:M5)</f>
+        <v>-106080845</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>9</v>
@@ -1364,7 +1382,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -1383,7 +1401,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="17">
         <f t="shared" ref="N6:N26" si="0">SUMPRODUCT($B$4:$M$4,B6:M6)</f>
-        <v>-179134741.40000001</v>
+        <v>-180034741.40000001</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>29</v>
@@ -1394,7 +1412,7 @@
     </row>
     <row r="7" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1412,9 +1430,9 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="13"/>
-      <c r="N7" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N7" s="30">
+        <f>SUMPRODUCT($B$4:$M$4,B7:M7)</f>
+        <v>1623891.799999997</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>9</v>
@@ -1425,7 +1443,7 @@
     </row>
     <row r="8" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="1">
         <v>-0.5</v>
@@ -1443,9 +1461,9 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="13"/>
-      <c r="N8" s="17">
-        <f>-SUMPRODUCT($B$4:$M$4,B8:M8)</f>
-        <v>0.5</v>
+      <c r="N8" s="28">
+        <f>SUMPRODUCT($B$4:$M$4,B8:M8)</f>
+        <v>49999.5</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>9</v>
@@ -1474,9 +1492,9 @@
         <v>-0.2</v>
       </c>
       <c r="M9" s="13"/>
-      <c r="N9" s="17">
-        <f>-SUMPRODUCT($B$4:$M$4,B9:M9)</f>
-        <v>0.80000000074505806</v>
+      <c r="N9" s="28">
+        <f>SUMPRODUCT($B$4:$M$4,B9:M9)</f>
+        <v>-35980.800000000745</v>
       </c>
       <c r="O9" s="14" t="s">
         <v>9</v>
@@ -1486,8 +1504,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>149</v>
+      <c r="A10" s="34" t="s">
+        <v>148</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1505,9 +1523,9 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="17">
-        <f>-SUMPRODUCT($B$4:$M$4,B10:M10)</f>
-        <v>58450977.200000018</v>
+      <c r="N10" s="28">
+        <f>SUMPRODUCT($B$4:$M$4,B10:M10)</f>
+        <v>-59100977.200000018</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>9</v>
@@ -1517,7 +1535,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
@@ -1536,7 +1554,7 @@
       <c r="M11" s="13"/>
       <c r="N11" s="17">
         <f t="shared" si="0"/>
-        <v>-107553574.79999998</v>
+        <v>-108403574.79999998</v>
       </c>
       <c r="O11" s="15" t="s">
         <v>29</v>
@@ -1546,8 +1564,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
-        <v>150</v>
+      <c r="A12" s="35" t="s">
+        <v>149</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4">
@@ -1567,7 +1585,7 @@
       </c>
       <c r="N12" s="17">
         <f t="shared" si="0"/>
-        <v>1725344.2400000095</v>
+        <v>1905307.2400000095</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>9</v>
@@ -1577,7 +1595,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
         <v>-0.99</v>
@@ -1596,7 +1614,7 @@
       </c>
       <c r="N13" s="17">
         <f t="shared" si="0"/>
-        <v>-1311224.4399999976</v>
+        <v>-1099417.1899999976</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>29</v>
@@ -1607,7 +1625,7 @@
     </row>
     <row r="14" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1627,7 +1645,7 @@
       <c r="M14" s="13"/>
       <c r="N14" s="17">
         <f t="shared" si="0"/>
-        <v>3124162</v>
+        <v>3124174</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>9</v>
@@ -1638,7 +1656,7 @@
     </row>
     <row r="15" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -1656,7 +1674,7 @@
       <c r="M15" s="13"/>
       <c r="N15" s="17">
         <f t="shared" si="0"/>
-        <v>17275649</v>
+        <v>17175649</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>9</v>
@@ -1685,10 +1703,10 @@
       <c r="M16" s="13"/>
       <c r="N16" s="17">
         <f t="shared" si="0"/>
-        <v>101218956</v>
+        <v>100157481</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="P16" s="1">
         <v>101218956</v>
@@ -1714,7 +1732,7 @@
       <c r="M17" s="13"/>
       <c r="N17" s="17">
         <f t="shared" si="0"/>
-        <v>245512988</v>
+        <v>246512988</v>
       </c>
       <c r="O17" s="12" t="s">
         <v>9</v>
@@ -1743,7 +1761,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="17">
         <f t="shared" si="0"/>
-        <v>17298838</v>
+        <v>17398849</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>9</v>
@@ -1772,7 +1790,7 @@
       <c r="M19" s="13"/>
       <c r="N19" s="17">
         <f t="shared" si="0"/>
-        <v>14174676</v>
+        <v>14274675</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>9</v>
@@ -1783,7 +1801,7 @@
     </row>
     <row r="20" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1801,7 +1819,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="17">
         <f t="shared" si="0"/>
-        <v>98895545</v>
+        <v>98995544</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>9</v>
@@ -1841,7 +1859,7 @@
     </row>
     <row r="22" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1888,7 +1906,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="17">
         <f t="shared" si="0"/>
-        <v>123619431.25</v>
+        <v>121714565.25</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>9</v>
@@ -1918,8 +1936,8 @@
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="17">
-        <f>-SUMPRODUCT($B$4:$M$4,B24:M24)</f>
-        <v>118031480</v>
+        <f>SUMPRODUCT($B$4:$K$4,B24:K24)</f>
+        <v>29507869</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>9</v>
@@ -1948,7 +1966,7 @@
       <c r="M25" s="13"/>
       <c r="N25" s="17">
         <f t="shared" si="0"/>
-        <v>147539349</v>
+        <v>147719249</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>9</v>
@@ -1959,7 +1977,7 @@
     </row>
     <row r="26" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1977,10 +1995,10 @@
       </c>
       <c r="N26" s="17">
         <f t="shared" si="0"/>
-        <v>98895542</v>
+        <v>98056489</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="P26" s="4">
         <v>98895542</v>
@@ -2006,7 +2024,7 @@
       <c r="M27" s="13"/>
       <c r="N27" s="27">
         <f>SUMPRODUCT($B$4:$M$4,B27:M27)</f>
-        <v>123619431.25</v>
+        <v>121714565.25</v>
       </c>
       <c r="O27" s="14" t="s">
         <v>30</v>
@@ -2035,7 +2053,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="N8 N10 N24" formula="1"/>
+    <ignoredError sqref="N24" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
